--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Adam23-Itga4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H2">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J2">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N2">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O2">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P2">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q2">
-        <v>0.10252725924</v>
+        <v>0.1029593996404444</v>
       </c>
       <c r="R2">
-        <v>0.9227453331600002</v>
+        <v>0.9266345967640001</v>
       </c>
       <c r="S2">
-        <v>7.226944618900768E-05</v>
+        <v>8.495172634736734E-05</v>
       </c>
       <c r="T2">
-        <v>7.226944618900768E-05</v>
+        <v>8.495172634736731E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H3">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J3">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P3">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q3">
-        <v>0.08599287360533332</v>
+        <v>0.06994958598311111</v>
       </c>
       <c r="R3">
-        <v>0.7739358624479999</v>
+        <v>0.6295462738480001</v>
       </c>
       <c r="S3">
-        <v>6.061468333130071E-05</v>
+        <v>5.771535291873081E-05</v>
       </c>
       <c r="T3">
-        <v>6.061468333130071E-05</v>
+        <v>5.771535291873081E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H4">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J4">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N4">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O4">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P4">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q4">
-        <v>0.540594899208</v>
+        <v>0.2293050748313334</v>
       </c>
       <c r="R4">
-        <v>4.865354092872</v>
+        <v>2.063745673482</v>
       </c>
       <c r="S4">
-        <v>0.0003810546996766144</v>
+        <v>0.0001891994517757653</v>
       </c>
       <c r="T4">
-        <v>0.0003810546996766143</v>
+        <v>0.0001891994517757653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.269164</v>
+        <v>0.2189473333333334</v>
       </c>
       <c r="H5">
-        <v>0.8074920000000001</v>
+        <v>0.656842</v>
       </c>
       <c r="I5">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870986</v>
       </c>
       <c r="J5">
-        <v>0.01089095165781685</v>
+        <v>0.009402596261870984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N5">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P5">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q5">
-        <v>14.72166649283867</v>
+        <v>10.99350098629089</v>
       </c>
       <c r="R5">
-        <v>132.494998435548</v>
+        <v>98.94150887661802</v>
       </c>
       <c r="S5">
-        <v>0.01037701282861993</v>
+        <v>0.009070729730829123</v>
       </c>
       <c r="T5">
-        <v>0.01037701282861993</v>
+        <v>0.009070729730829121</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>60.237349</v>
       </c>
       <c r="I6">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J6">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N6">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O6">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P6">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q6">
-        <v>7.648336202530001</v>
+        <v>9.442150911439779</v>
       </c>
       <c r="R6">
-        <v>68.83502582277001</v>
+        <v>84.979358202958</v>
       </c>
       <c r="S6">
-        <v>0.00539116158689371</v>
+        <v>0.007790711903530621</v>
       </c>
       <c r="T6">
-        <v>0.005391161586893708</v>
+        <v>0.007790711903530621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>60.237349</v>
       </c>
       <c r="I7">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J7">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P7">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q7">
-        <v>6.414902858328444</v>
+        <v>6.414902858328445</v>
       </c>
       <c r="R7">
-        <v>57.73412572495599</v>
+        <v>57.73412572495601</v>
       </c>
       <c r="S7">
-        <v>0.004521738709921638</v>
+        <v>0.0052929317193842</v>
       </c>
       <c r="T7">
-        <v>0.004521738709921638</v>
+        <v>0.005292931719384199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>60.237349</v>
       </c>
       <c r="I8">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J8">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N8">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O8">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P8">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q8">
-        <v>40.327338984426</v>
+        <v>21.02899908971434</v>
       </c>
       <c r="R8">
-        <v>362.946050859834</v>
+        <v>189.260991807429</v>
       </c>
       <c r="S8">
-        <v>0.02842594717038733</v>
+        <v>0.01735101197430348</v>
       </c>
       <c r="T8">
-        <v>0.02842594717038732</v>
+        <v>0.01735101197430347</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>60.237349</v>
       </c>
       <c r="I9">
-        <v>0.8124440315867432</v>
+        <v>0.8622887582286424</v>
       </c>
       <c r="J9">
-        <v>0.8124440315867431</v>
+        <v>0.8622887582286423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N9">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P9">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q9">
-        <v>1098.207985206948</v>
+        <v>1008.186680576225</v>
       </c>
       <c r="R9">
-        <v>9883.871866862532</v>
+        <v>9073.680125186023</v>
       </c>
       <c r="S9">
-        <v>0.7741051841195405</v>
+        <v>0.831854102631424</v>
       </c>
       <c r="T9">
-        <v>0.7741051841195404</v>
+        <v>0.8318541026314239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H10">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J10">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N10">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O10">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P10">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q10">
-        <v>1.59661765811</v>
+        <v>1.327757766584889</v>
       </c>
       <c r="R10">
-        <v>14.36955892299</v>
+        <v>11.949819899264</v>
       </c>
       <c r="S10">
-        <v>0.001125424348436919</v>
+        <v>0.001095531975093248</v>
       </c>
       <c r="T10">
-        <v>0.001125424348436919</v>
+        <v>0.001095531975093247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H11">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J11">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P11">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q11">
-        <v>1.339134016530222</v>
+        <v>0.9020653420942222</v>
       </c>
       <c r="R11">
-        <v>12.052206148772</v>
+        <v>8.118588078848001</v>
       </c>
       <c r="S11">
-        <v>0.0009439291995600662</v>
+        <v>0.0007442934628275565</v>
       </c>
       <c r="T11">
-        <v>0.000943929199560066</v>
+        <v>0.0007442934628275564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H12">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J12">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N12">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O12">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P12">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q12">
-        <v>8.418476884662001</v>
+        <v>2.957103431914667</v>
       </c>
       <c r="R12">
-        <v>75.76629196195799</v>
+        <v>26.613930887232</v>
       </c>
       <c r="S12">
-        <v>0.005934018589001009</v>
+        <v>0.002439903907813726</v>
       </c>
       <c r="T12">
-        <v>0.005934018589001006</v>
+        <v>0.002439903907813725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.191587666666667</v>
+        <v>2.823530666666667</v>
       </c>
       <c r="H13">
-        <v>12.574763</v>
+        <v>8.470592</v>
       </c>
       <c r="I13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852724</v>
       </c>
       <c r="J13">
-        <v>0.1696006102122424</v>
+        <v>0.1212552739852723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N13">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P13">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q13">
-        <v>229.2548621069775</v>
+        <v>141.7714785389298</v>
       </c>
       <c r="R13">
-        <v>2063.293758962797</v>
+        <v>1275.943306850368</v>
       </c>
       <c r="S13">
-        <v>0.1615972380752444</v>
+        <v>0.1169755446395378</v>
       </c>
       <c r="T13">
-        <v>0.1615972380752444</v>
+        <v>0.1169755446395378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H14">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I14">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J14">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38091</v>
+        <v>0.4702473333333333</v>
       </c>
       <c r="N14">
-        <v>1.14273</v>
+        <v>1.410742</v>
       </c>
       <c r="O14">
-        <v>0.006635732896411961</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="P14">
-        <v>0.00663573289641196</v>
+        <v>0.009034922268422819</v>
       </c>
       <c r="Q14">
-        <v>0.06650421963</v>
+        <v>0.07723514626688889</v>
       </c>
       <c r="R14">
-        <v>0.59853797667</v>
+        <v>0.695116316402</v>
       </c>
       <c r="S14">
-        <v>4.68775148923237E-05</v>
+        <v>6.372666345158294E-05</v>
       </c>
       <c r="T14">
-        <v>4.68775148923237E-05</v>
+        <v>6.372666345158294E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H15">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I15">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J15">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>0.3194813333333333</v>
       </c>
       <c r="N15">
-        <v>0.9584439999999999</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="P15">
-        <v>0.005565600255676025</v>
+        <v>0.006138235792679485</v>
       </c>
       <c r="Q15">
-        <v>0.05577920443066665</v>
+        <v>0.05247278561822222</v>
       </c>
       <c r="R15">
-        <v>0.5020128398759999</v>
+        <v>0.4722550705640001</v>
       </c>
       <c r="S15">
-        <v>3.931766286301952E-05</v>
+        <v>4.329525754899831E-05</v>
       </c>
       <c r="T15">
-        <v>3.931766286301951E-05</v>
+        <v>4.329525754899831E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H16">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I16">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J16">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.008422</v>
+        <v>1.047307</v>
       </c>
       <c r="N16">
-        <v>6.025265999999999</v>
+        <v>3.141921</v>
       </c>
       <c r="O16">
-        <v>0.03498819126638183</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="P16">
-        <v>0.03498819126638182</v>
+        <v>0.02012204358311108</v>
       </c>
       <c r="Q16">
-        <v>0.350656422246</v>
+        <v>0.1720135418056667</v>
       </c>
       <c r="R16">
-        <v>3.155907800214</v>
+        <v>1.548121876251</v>
       </c>
       <c r="S16">
-        <v>0.0002471708073168742</v>
+        <v>0.0001419282492181143</v>
       </c>
       <c r="T16">
-        <v>0.0002471708073168741</v>
+        <v>0.0001419282492181143</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.174593</v>
+        <v>0.1642436666666667</v>
       </c>
       <c r="H17">
-        <v>0.523779</v>
+        <v>0.492731</v>
       </c>
       <c r="I17">
-        <v>0.007064406543197522</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="J17">
-        <v>0.007064406543197521</v>
+        <v>0.007053371524214274</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.69403966666667</v>
+        <v>50.21070966666667</v>
       </c>
       <c r="N17">
-        <v>164.082119</v>
+        <v>150.632129</v>
       </c>
       <c r="O17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="P17">
-        <v>0.9528104755815302</v>
+        <v>0.9647047983557866</v>
       </c>
       <c r="Q17">
-        <v>9.549196467522334</v>
+        <v>8.24679106158878</v>
       </c>
       <c r="R17">
-        <v>85.94276820770101</v>
+        <v>74.22111955429901</v>
       </c>
       <c r="S17">
-        <v>0.006731040558125305</v>
+        <v>0.006804421353995578</v>
       </c>
       <c r="T17">
-        <v>0.006731040558125304</v>
+        <v>0.006804421353995578</v>
       </c>
     </row>
   </sheetData>
